--- a/Labels and Rules Worksheet.xlsx
+++ b/Labels and Rules Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry/Documents/Projects/Compliance Getting Started/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A02AF4D-3BE5-6C4C-8678-E81E839BCD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A02455-E8D9-A140-9920-657B98B8247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="6620" windowWidth="34120" windowHeight="24740" activeTab="1" xr2:uid="{74780FA7-C538-4090-A9C3-45A1B9CCCEEE}"/>
+    <workbookView xWindow="5480" yWindow="3360" windowWidth="34120" windowHeight="20400" activeTab="1" xr2:uid="{74780FA7-C538-4090-A9C3-45A1B9CCCEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Units" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>Company Name</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Namespace Example</t>
+  </si>
+  <si>
+    <t>app=hipstershop</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -807,7 +810,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1024,7 @@
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1036,6 +1039,9 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
